--- a/registros.xlsx
+++ b/registros.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4765,39 +4765,6 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>150</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Magallanes</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Indicadores de desempeño</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>prueba</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>17-08-2025</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4765,6 +4765,305 @@
         </is>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>147</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Temas de Personas</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Procesos de selección: se están cerrando los procesos de entrevistas de DAF, el de plataforma está en evaluación cv.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>148</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ejecución Presupuestaria</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Licitación privada para compras de capacitaciones: en acta de evaluación. Línea 1 y 2 con listado de inscritos. Y el resto 1 capacitación semanal para los servicios de salud. 
+Licitación de cursos idea de realizarla por dos años. Más parrilla de cursos a demanda, se ampliará la oferta. Pausas saludables: en licitación son 65 millones. Se va a analizar cómo se está usando. SLEP de Puelche, se está evaluando si se va a quedar o no. Con el SLEP los Copihues, se está ofreciendo la máxima colaboración.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>149</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Temas exploración prestadores públicos: traumatológico y COSAM (hay 3 COSAM en Concepción). La canasta de prestaciones traumatológicas opera con arancel particular. Quedó en el convenio original con el Ministerio de Salud. Insumos y medicamentos a valor particular también.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>150</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Infraestructura</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Podría la persona que está pidiendo traslado de Los Ríos, ejecutar las verificaciones de medidas (salud). Los Ángeles es donde se requiere apoyo de prevención (se debería solicitar cupo). Con la nueva licitación de psicólogos se requiere en Los Ángeles).</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>151</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Biobío</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Infraestructura</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Se ha ordenado bodegas y se eliminaron los documentos no necesarios. Se ha realizado ciertas mejoras de contar con techos en salidas.
+Contar con sucursal en Talcahuano, para potenciar ámbito preventivo en la zona, con punto de atención.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>152</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Temas de Personas</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Se debe resolver tema movilidades internas de Cristian Herrera y Lissette Latorre, directora enviará correo a Natalia.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>153</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Indicadores de desempeño</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Respecto del plan de prevención: hay un tema de retroalimentación desde NC de las planillas de los indicadores psicosocial. También con tema servicios públicos, hay una actualización que realizó la región y el indicador aumentó. Sílice está bajo para que puedan rastrear nuevamente.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>154</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Temas de Personas</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Resolver jefatura sección de prevención.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>155</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Político Institucional</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Caso Pablo Ulloa: Lo fueron a visitar para actualizar el informe social. Lo pendiente era su internet, el que se debe reembolsar de acuerdo a instrucciones, pero es una antena satelital que se instaló el año pasado. Se pide a la directora regional escalar con salud, enviará correo.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5064,6 +5064,280 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Indicadores de desempeño</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Están trabajando para hacer un plan de trabajo más o menos rápido, para ponerse al día con las metas. Primeros avances, la semana pasada Jefe Prevención salió a un recorrido por varios lugares, a fin de aumentar capacitados y mejorar procesos donde se está más débil. Sílice, está lento, pero que ya se tienen los lugares y tomando las medias.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Ejecución Presupuestaria</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Faltan un par de compras que se han ido retrasando por distintas situaciones.
+Por ejemplo, unas chaquetas para prevención, pero hubo que bajar la licitación y modifica las bases.
+El resto se encuentra en regla. Salió lo de las pausas que era una preocupación, pero que ya eso se subsanó (Julio-Agosto)</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Correos desde Chile Chico respecto de los exámenes ocupacionales que hace el hospital allá. Ellos no han tenido novedades respecto de cómo poder facturar esas atenciones y se han mandado los correos a la Camila con copia a María Isabel
+Licitación de evaluaciones ocupacionales y vigilancia (Se requiere Información)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Infraestructura</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Aún está en proceso el cambio de inmueble. El proceso estuvo detenido un mes (Carolina Barrera estuvo fuera con licencia). Al propieatario se le han dado una serie de plazos que finalmente no se cumplieron por responsabilidad de ambos. (corredora ahí envió la documentación a último).
+Seremi de Gobierno está interesada en el inmueble y ya cuenta con la autorización de DIPRES.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Temas de Personas</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Jimena Zárate presentó una DIEP (salud mental). Salió como común. 
+Clima Laboral: Aunque los problemas son derivados de asuntos personales, se ha logrado disminuir los conflictos y mantener un buen clima laboral en el último tiempo.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Indicadores de desempeño</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Capacitados: Meta 4400. a la fecha aprox. 2300
+Región indica que lleva un avance de 61%, lo que contrasta con el 51% según datos de planilla de preveción NC.
+Se solicita envíen planilla para trabajar un una planilla o instrumento único para todas las regiones.
+Problemas con tablets ya han sido superados en su totalidad.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Plan de SSPP</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Se está armando el Cosoc. Se han realido ya dos reuniones. Manual Ahumada está colaborando en eso.
+SLEP Cachapoal. En estos momentos cuenta con 15 funcionarios administrativos (todos en funciones online) los que no han sido posible ubicar y contactar. Se buscará la alternativa por intermedio de la Seremía de Educación para tomar contacto con ellos.
+SLEP cuenta con 79 colegio y una estimación de 12000 funcionario según información del SEREMI de educación.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Temas de Personas</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sumario a funcionario Julio Urzua</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registros.xlsx
+++ b/registros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pclaissacs\OneDrive - Instituto de Seguridad Laboral\2.- 2025\1.Coordinación Regional\Códigos-Aplicaciones\Seguimiento Regional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Códigos-Aplicaciones/Seguimiento Regional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0E23D-ABBC-4BA4-AEF7-E3A7968A6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1EE0E23D-ABBC-4BA4-AEF7-E3A7968A6AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CEE48E-C032-4C96-B0D4-DB73840EF551}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Valparaíso</t>
-  </si>
-  <si>
-    <t>Temas Dpto.Personas</t>
   </si>
   <si>
     <t xml:space="preserve">-Curriculum Participación Ciudadana: Respuesta 17 marzo
@@ -714,9 +711,6 @@
   </si>
   <si>
     <t>Biobío</t>
-  </si>
-  <si>
-    <t>Temas de Personas</t>
   </si>
   <si>
     <t>Procesos de selección: se están cerrando los procesos de entrevistas de DAF, el de plataforma está en evaluación cv.</t>
@@ -890,29 +884,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="dotted">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="dotted">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="dotted">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1212,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,16 +1226,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,16 +1266,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,16 +1286,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,16 +1306,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,16 +1326,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,19 +1343,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,19 +1363,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,19 +1383,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,19 +1403,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,19 +1423,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1471,19 +1443,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,19 +1463,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,19 +1483,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,19 +1503,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,19 +1523,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,19 +1543,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,19 +1563,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,19 +1583,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,19 +1603,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1651,19 +1623,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1671,19 +1643,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>42</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1691,19 +1663,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,19 +1683,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,19 +1703,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1751,19 +1723,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,19 +1743,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,19 +1763,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,19 +1783,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,19 +1803,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1851,19 +1823,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,19 +1843,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,19 +1863,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
         <v>60</v>
       </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,19 +1883,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,19 +1903,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1951,19 +1923,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1971,19 +1943,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,19 +1963,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,19 +1983,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,19 +2003,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,19 +2023,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,19 +2043,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,19 +2063,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2111,19 +2083,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,19 +2103,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
         <v>74</v>
       </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>75</v>
-      </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,19 +2123,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2171,19 +2143,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2191,19 +2163,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2211,19 +2183,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,19 +2203,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2251,19 +2223,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,19 +2243,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2291,19 +2263,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
         <v>83</v>
       </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,19 +2283,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,19 +2303,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,19 +2323,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2371,19 +2343,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2391,19 +2363,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2411,19 +2383,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2431,19 +2403,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2451,19 +2423,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2471,19 +2443,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
         <v>93</v>
       </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" t="s">
-        <v>94</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,19 +2463,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2511,19 +2483,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,19 +2503,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2551,19 +2523,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,19 +2543,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2591,19 +2563,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,19 +2583,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2631,19 +2603,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,19 +2623,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
         <v>103</v>
       </c>
-      <c r="C72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" t="s">
-        <v>104</v>
-      </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2671,19 +2643,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,19 +2663,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,19 +2683,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,19 +2703,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2751,19 +2723,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,19 +2743,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,19 +2763,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,19 +2783,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,19 +2803,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" t="s">
         <v>113</v>
       </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" t="s">
-        <v>114</v>
-      </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,19 +2823,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2871,19 +2843,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,19 +2863,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,19 +2883,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2931,19 +2903,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,19 +2923,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,19 +2943,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,19 +2963,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" t="s">
         <v>121</v>
       </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" t="s">
-        <v>122</v>
-      </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,19 +2983,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,19 +3003,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,19 +3023,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,19 +3043,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3091,19 +3063,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,19 +3083,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3131,19 +3103,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3151,19 +3123,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
         <v>130</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,19 +3143,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,19 +3163,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3211,19 +3183,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3231,19 +3203,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3251,19 +3223,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3271,19 +3243,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,19 +3263,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3311,19 +3283,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3331,19 +3303,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3351,19 +3323,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,19 +3343,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,19 +3363,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,19 +3383,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
+        <v>143</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
         <v>144</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,19 +3403,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3451,19 +3423,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3471,19 +3443,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3491,19 +3463,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,19 +3483,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3531,19 +3503,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,19 +3523,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3571,19 +3543,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3591,19 +3563,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
+        <v>153</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
         <v>154</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3611,19 +3583,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" t="s">
         <v>156</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
         <v>157</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3631,19 +3603,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
+        <v>158</v>
+      </c>
+      <c r="D121" t="s">
         <v>159</v>
       </c>
-      <c r="D121" t="s">
-        <v>160</v>
-      </c>
       <c r="F121">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,19 +3623,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C122" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" t="s">
         <v>161</v>
       </c>
-      <c r="D122" t="s">
-        <v>162</v>
-      </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,19 +3643,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" t="s">
         <v>163</v>
       </c>
-      <c r="D123" t="s">
-        <v>164</v>
-      </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3691,19 +3663,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" t="s">
         <v>165</v>
       </c>
-      <c r="D124" t="s">
-        <v>166</v>
-      </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3711,19 +3683,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C125" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" t="s">
         <v>167</v>
       </c>
-      <c r="D125" t="s">
-        <v>168</v>
-      </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3734,16 +3706,16 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D126" t="s">
+        <v>168</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
         <v>169</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3754,16 +3726,16 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3774,16 +3746,16 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3794,16 +3766,16 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" t="s">
         <v>173</v>
       </c>
-      <c r="D129" t="s">
-        <v>174</v>
-      </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,19 +3783,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" t="s">
         <v>175</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>176</v>
       </c>
-      <c r="D130" t="s">
-        <v>177</v>
-      </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3831,19 +3803,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3851,19 +3823,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,19 +3843,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3891,19 +3863,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3911,19 +3883,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
+        <v>181</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
         <v>182</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3931,19 +3903,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3951,19 +3923,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3971,19 +3943,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3991,19 +3963,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4011,19 +3983,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
+        <v>187</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
         <v>188</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,19 +4003,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4051,19 +4023,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,19 +4043,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4091,19 +4063,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4111,19 +4083,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4131,19 +4103,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,22 +4123,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147" t="s">
         <v>196</v>
       </c>
-      <c r="C147" t="s">
+      <c r="E147" t="s">
         <v>197</v>
       </c>
-      <c r="D147" t="s">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
         <v>198</v>
-      </c>
-      <c r="E147" t="s">
-        <v>199</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,22 +4146,22 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4197,22 +4169,22 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E149" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4220,22 +4192,22 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" t="s">
+        <v>201</v>
+      </c>
+      <c r="E150" t="s">
         <v>197</v>
       </c>
-      <c r="D150" t="s">
-        <v>203</v>
-      </c>
-      <c r="E150" t="s">
-        <v>199</v>
-      </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4243,22 +4215,22 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E151" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4266,22 +4238,22 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C152" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" t="s">
+        <v>203</v>
+      </c>
+      <c r="E152" t="s">
         <v>197</v>
       </c>
-      <c r="D152" t="s">
-        <v>205</v>
-      </c>
-      <c r="E152" t="s">
-        <v>199</v>
-      </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4289,22 +4261,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D153" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E153" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4312,22 +4284,22 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C154" t="s">
+        <v>175</v>
+      </c>
+      <c r="D154" t="s">
+        <v>205</v>
+      </c>
+      <c r="E154" t="s">
         <v>197</v>
       </c>
-      <c r="D154" t="s">
-        <v>207</v>
-      </c>
-      <c r="E154" t="s">
-        <v>199</v>
-      </c>
       <c r="F154">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4335,22 +4307,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E155" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4358,22 +4330,22 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D156" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E156" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4381,22 +4353,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E157" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,22 +4376,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E158" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4427,22 +4399,22 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E159" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4450,22 +4422,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C160" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" t="s">
+        <v>212</v>
+      </c>
+      <c r="E160" t="s">
         <v>197</v>
       </c>
-      <c r="D160" t="s">
-        <v>214</v>
-      </c>
-      <c r="E160" t="s">
-        <v>199</v>
-      </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,22 +4445,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D161" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E161" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4496,22 +4468,22 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>213</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" t="s">
         <v>215</v>
       </c>
-      <c r="C162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" t="s">
-        <v>217</v>
-      </c>
       <c r="E162" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4519,22 +4491,22 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C163" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" t="s">
+        <v>216</v>
+      </c>
+      <c r="E163" t="s">
         <v>197</v>
       </c>
-      <c r="D163" t="s">
-        <v>218</v>
-      </c>
-      <c r="E163" t="s">
-        <v>199</v>
-      </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4542,22 +4514,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D164" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E164" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4565,22 +4537,22 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E165" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4588,22 +4560,22 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E166" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,22 +4583,22 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E167" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4634,22 +4606,22 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D168" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E168" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4657,22 +4629,22 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>222</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
         <v>224</v>
       </c>
-      <c r="C169" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s">
-        <v>226</v>
-      </c>
       <c r="E169" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4680,22 +4652,22 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E170" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,22 +4675,22 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" t="s">
+        <v>226</v>
+      </c>
+      <c r="E171" t="s">
         <v>197</v>
       </c>
-      <c r="D171" t="s">
-        <v>228</v>
-      </c>
-      <c r="E171" t="s">
-        <v>199</v>
-      </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4726,16 +4698,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E172" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F172">
         <v>0</v>
